--- a/biology/Médecine/Jacques_Grévin/Jacques_Grévin.xlsx
+++ b/biology/Médecine/Jacques_Grévin/Jacques_Grévin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques_Gr%C3%A9vin</t>
+          <t>Jacques_Grévin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Grévin, né à Clermont-en-Beauvaisis (Picardie) en 1538 et mort à Turin (États de Savoie) en novembre 1570, est un médecin, homme de théâtre et poète français. Il réside à Clermont-en-Beauvaisis, dans un hôtel particulier, au numéro 3 de la rue de la Porte Nointel. Ami de Ramus, de Du Bellay et de Ronsard, il fut dans les dernières années de sa vie le médecin de Marguerite de France, duchesse de Savoie, sœur de Henri II de France ; c'est à la cour de Turin qu'il mourut à l'âge de 32 ans.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques_Gr%C3%A9vin</t>
+          <t>Jacques_Grévin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En tant qu'auteur dramatique, Jacques Grévin fut l'un des premiers, à la suite de Jodelle, à chercher à introduire la tragédie en France. Sainte-Beuve notait que les comédies de Grévin avaient beaucoup d'affinité avec les farces et les soties qui avaient cours jusqu'alors. Sa première pièce, La Maubertine, est perdue. Une nouvelle comédie, La Trésorière, en reprit les bases. Elle fut représentée au collège de Beauvais, en 1558, bien qu'ayant été écrite originellement à l'intention d'Henri II pour célébrer le mariage de Claude, duchesse de Lorraine.
 En 1561, il publia Cesar, imitée d'un original latin de Marc-Antoine Muret, et une comédie, Les Esbahis, sa pièce la plus importante, mais aussi (selon l'Encyclopædia Britannica de 1911) « la plus indécente ». 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jacques_Gr%C3%A9vin</t>
+          <t>Jacques_Grévin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hymne à Monseigneur le Dauphin sur le mariage dudict seigneur et de Mme Marie d'Estevart, royne d'Escosse, 1558
 Les Regretz de Charles d'Austriche, empereur, cinquiesme de ce nom. Ensemble la description du Beauvoisis et autres œuvres, 1558
@@ -565,9 +581,43 @@
 Cesar, tragédie, 1578
 Les Preceptes de Plutarque, monstrant la maniere comme il faut se gouverner en mariage, translatez selon la verité du grec par Jacques Grevin, de Clermontavec une Chanson de la femme vertueuse &amp; bonne ménagère, s. d.
 Le Second Discours de Jaques Grévin sur les vertus et facultez de l'antimoine, pour la confirmation de l'advis des médecins de Paris et pour servir d'apologie contre ce qu'a escrit M. Loïs de Launay, s. d.
-En 1578, une partie de ses odes est mise en musique par le compositeur Antoine de Bertrand.
-Éditions modernes
-Sonnets d'Angleterre et de Flandre, publiés par Léon Dorez, Paris : H. Leclerc et P. Cornuau, 1898
+En 1578, une partie de ses odes est mise en musique par le compositeur Antoine de Bertrand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Grévin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Gr%C3%A9vin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Éditions modernes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sonnets d'Angleterre et de Flandre, publiés par Léon Dorez, Paris : H. Leclerc et P. Cornuau, 1898
 Théâtre complet et poésies choisies de Jacques Grévin, avec notice et notes par Lucien Pinvert, Paris : Librairie Garnier frères, 1922
 De l'Imposture des diables, par Jean Wier, traduction par Jacques Grévin de De praestigiis daemenum et incantationibus ac venificiis, Paris : Théraplix, 1970
 César, édition critique avec introduction et notes par Ellen S. Ginsberg, Genève : Droz ; Paris : Minard, 1971
